--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04266066666666666</v>
+        <v>0.02942666666666667</v>
       </c>
       <c r="H2">
-        <v>0.127982</v>
+        <v>0.08828</v>
       </c>
       <c r="I2">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923747</v>
       </c>
       <c r="J2">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923746</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04190566666666667</v>
+        <v>0.4634973333333334</v>
       </c>
       <c r="N2">
-        <v>0.125717</v>
+        <v>1.390492</v>
       </c>
       <c r="O2">
-        <v>0.01599754152181327</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="P2">
-        <v>0.01599754152181327</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="Q2">
-        <v>0.001787723677111111</v>
+        <v>0.01363918152888889</v>
       </c>
       <c r="R2">
-        <v>0.016089513094</v>
+        <v>0.12275263376</v>
       </c>
       <c r="S2">
-        <v>0.0002575656852527549</v>
+        <v>0.001881347885198962</v>
       </c>
       <c r="T2">
-        <v>0.0002575656852527548</v>
+        <v>0.001881347885198962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04266066666666666</v>
+        <v>0.02942666666666667</v>
       </c>
       <c r="H3">
-        <v>0.127982</v>
+        <v>0.08828</v>
       </c>
       <c r="I3">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923747</v>
       </c>
       <c r="J3">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923746</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.050248</v>
       </c>
       <c r="O3">
-        <v>0.006394079292284045</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="P3">
-        <v>0.006394079292284045</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="Q3">
-        <v>0.0007145377262222221</v>
+        <v>0.0004928770488888889</v>
       </c>
       <c r="R3">
-        <v>0.006430839535999999</v>
+        <v>0.00443589344</v>
       </c>
       <c r="S3">
-        <v>0.0001029467816809217</v>
+        <v>6.798598520198424E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001029467816809216</v>
+        <v>6.798598520198421E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04266066666666666</v>
+        <v>0.02942666666666667</v>
       </c>
       <c r="H4">
-        <v>0.127982</v>
+        <v>0.08828</v>
       </c>
       <c r="I4">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923747</v>
       </c>
       <c r="J4">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.544263666666666</v>
+        <v>6.648105333333334</v>
       </c>
       <c r="N4">
-        <v>7.632790999999999</v>
+        <v>19.944316</v>
       </c>
       <c r="O4">
-        <v>0.9712758890987108</v>
+        <v>0.9326286543275828</v>
       </c>
       <c r="P4">
-        <v>0.9712758890987108</v>
+        <v>0.9326286543275827</v>
       </c>
       <c r="Q4">
-        <v>0.1085399841957777</v>
+        <v>0.1956315796088889</v>
       </c>
       <c r="R4">
-        <v>0.9768598577619998</v>
+        <v>1.76068421648</v>
       </c>
       <c r="S4">
-        <v>0.01563786158042317</v>
+        <v>0.02698483466883652</v>
       </c>
       <c r="T4">
-        <v>0.01563786158042317</v>
+        <v>0.02698483466883651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04266066666666666</v>
+        <v>0.04158733333333333</v>
       </c>
       <c r="H5">
-        <v>0.127982</v>
+        <v>0.124762</v>
       </c>
       <c r="I5">
-        <v>0.01610032922255923</v>
+        <v>0.04089130873688655</v>
       </c>
       <c r="J5">
-        <v>0.01610032922255923</v>
+        <v>0.04089130873688654</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.016588</v>
+        <v>0.4634973333333334</v>
       </c>
       <c r="N5">
-        <v>0.049764</v>
+        <v>1.390492</v>
       </c>
       <c r="O5">
-        <v>0.006332490087191991</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="P5">
-        <v>0.006332490087191991</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="Q5">
-        <v>0.0007076551386666664</v>
+        <v>0.01927561810044445</v>
       </c>
       <c r="R5">
-        <v>0.006368896247999999</v>
+        <v>0.173480562904</v>
       </c>
       <c r="S5">
-        <v>0.0001019551752023839</v>
+        <v>0.002658821078989498</v>
       </c>
       <c r="T5">
-        <v>0.0001019551752023838</v>
+        <v>0.002658821078989498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.216235</v>
+        <v>0.04158733333333333</v>
       </c>
       <c r="H6">
-        <v>0.6487050000000001</v>
+        <v>0.124762</v>
       </c>
       <c r="I6">
-        <v>0.08160807041865488</v>
+        <v>0.04089130873688655</v>
       </c>
       <c r="J6">
-        <v>0.08160807041865487</v>
+        <v>0.04089130873688654</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04190566666666667</v>
+        <v>0.01674933333333333</v>
       </c>
       <c r="N6">
-        <v>0.125717</v>
+        <v>0.050248</v>
       </c>
       <c r="O6">
-        <v>0.01599754152181327</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="P6">
-        <v>0.01599754152181327</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="Q6">
-        <v>0.009061471831666668</v>
+        <v>0.0006965601084444444</v>
       </c>
       <c r="R6">
-        <v>0.08155324648500001</v>
+        <v>0.006269040976</v>
       </c>
       <c r="S6">
-        <v>0.001305528495037493</v>
+        <v>9.608141692081962E-05</v>
       </c>
       <c r="T6">
-        <v>0.001305528495037493</v>
+        <v>9.60814169208196E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.216235</v>
+        <v>0.04158733333333333</v>
       </c>
       <c r="H7">
-        <v>0.6487050000000001</v>
+        <v>0.124762</v>
       </c>
       <c r="I7">
-        <v>0.08160807041865488</v>
+        <v>0.04089130873688655</v>
       </c>
       <c r="J7">
-        <v>0.08160807041865487</v>
+        <v>0.04089130873688654</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01674933333333333</v>
+        <v>6.648105333333334</v>
       </c>
       <c r="N7">
-        <v>0.050248</v>
+        <v>19.944316</v>
       </c>
       <c r="O7">
-        <v>0.006394079292284045</v>
+        <v>0.9326286543275828</v>
       </c>
       <c r="P7">
-        <v>0.006394079292284045</v>
+        <v>0.9326286543275827</v>
       </c>
       <c r="Q7">
-        <v>0.003621792093333334</v>
+        <v>0.2764769725324444</v>
       </c>
       <c r="R7">
-        <v>0.03259612884</v>
+        <v>2.488292752792</v>
       </c>
       <c r="S7">
-        <v>0.0005218084731471792</v>
+        <v>0.03813640624097623</v>
       </c>
       <c r="T7">
-        <v>0.0005218084731471792</v>
+        <v>0.03813640624097622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.216235</v>
+        <v>0.9379063333333333</v>
       </c>
       <c r="H8">
-        <v>0.6487050000000001</v>
+        <v>2.813719</v>
       </c>
       <c r="I8">
-        <v>0.08160807041865488</v>
+        <v>0.9222091047582091</v>
       </c>
       <c r="J8">
-        <v>0.08160807041865487</v>
+        <v>0.9222091047582088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.544263666666666</v>
+        <v>0.4634973333333334</v>
       </c>
       <c r="N8">
-        <v>7.632790999999999</v>
+        <v>1.390492</v>
       </c>
       <c r="O8">
-        <v>0.9712758890987108</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="P8">
-        <v>0.9712758890987108</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="Q8">
-        <v>0.5501588539616666</v>
+        <v>0.4347170844164445</v>
       </c>
       <c r="R8">
-        <v>4.951429685655</v>
+        <v>3.912453759748</v>
       </c>
       <c r="S8">
-        <v>0.07926395115350922</v>
+        <v>0.05996357374483618</v>
       </c>
       <c r="T8">
-        <v>0.0792639511535092</v>
+        <v>0.05996357374483617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.216235</v>
+        <v>0.9379063333333333</v>
       </c>
       <c r="H9">
-        <v>0.6487050000000001</v>
+        <v>2.813719</v>
       </c>
       <c r="I9">
-        <v>0.08160807041865488</v>
+        <v>0.9222091047582091</v>
       </c>
       <c r="J9">
-        <v>0.08160807041865487</v>
+        <v>0.9222091047582088</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.016588</v>
+        <v>0.01674933333333333</v>
       </c>
       <c r="N9">
-        <v>0.049764</v>
+        <v>0.050248</v>
       </c>
       <c r="O9">
-        <v>0.006332490087191991</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="P9">
-        <v>0.006332490087191991</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="Q9">
-        <v>0.003586906180000001</v>
+        <v>0.01570930581244444</v>
       </c>
       <c r="R9">
-        <v>0.03228215562</v>
+        <v>0.141383752312</v>
       </c>
       <c r="S9">
-        <v>0.000516782296960998</v>
+        <v>0.002166894634079541</v>
       </c>
       <c r="T9">
-        <v>0.0005167822969609979</v>
+        <v>0.00216689463407954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.211082333333333</v>
+        <v>0.9379063333333333</v>
       </c>
       <c r="H10">
-        <v>6.633247</v>
+        <v>2.813719</v>
       </c>
       <c r="I10">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582091</v>
       </c>
       <c r="J10">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582088</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04190566666666667</v>
+        <v>6.648105333333334</v>
       </c>
       <c r="N10">
-        <v>0.125717</v>
+        <v>19.944316</v>
       </c>
       <c r="O10">
-        <v>0.01599754152181327</v>
+        <v>0.9326286543275828</v>
       </c>
       <c r="P10">
-        <v>0.01599754152181327</v>
+        <v>0.9326286543275827</v>
       </c>
       <c r="Q10">
-        <v>0.09265687923322222</v>
+        <v>6.235300096800445</v>
       </c>
       <c r="R10">
-        <v>0.8339119130989999</v>
+        <v>56.117700871204</v>
       </c>
       <c r="S10">
-        <v>0.01334950859500383</v>
+        <v>0.8600786363792934</v>
       </c>
       <c r="T10">
-        <v>0.01334950859500383</v>
+        <v>0.860078636379293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,60 +1089,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.008101000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.024303</v>
+      </c>
+      <c r="I11">
+        <v>0.007965417965667061</v>
+      </c>
+      <c r="J11">
+        <v>0.007965417965667059</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.211082333333333</v>
-      </c>
-      <c r="H11">
-        <v>6.633247</v>
-      </c>
-      <c r="I11">
-        <v>0.8344725079663808</v>
-      </c>
-      <c r="J11">
-        <v>0.8344725079663808</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.01674933333333333</v>
+        <v>0.4634973333333334</v>
       </c>
       <c r="N11">
-        <v>0.050248</v>
+        <v>1.390492</v>
       </c>
       <c r="O11">
-        <v>0.006394079292284045</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="P11">
-        <v>0.006394079292284045</v>
+        <v>0.06502166746722571</v>
       </c>
       <c r="Q11">
-        <v>0.03703415502844445</v>
+        <v>0.003754791897333334</v>
       </c>
       <c r="R11">
-        <v>0.333307395256</v>
+        <v>0.033793127076</v>
       </c>
       <c r="S11">
-        <v>0.005335683383168168</v>
+        <v>0.0005179247582010691</v>
       </c>
       <c r="T11">
-        <v>0.005335683383168168</v>
+        <v>0.000517924758201069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,60 +1151,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.211082333333333</v>
+        <v>0.008101000000000001</v>
       </c>
       <c r="H12">
-        <v>6.633247</v>
+        <v>0.024303</v>
       </c>
       <c r="I12">
-        <v>0.8344725079663808</v>
+        <v>0.007965417965667061</v>
       </c>
       <c r="J12">
-        <v>0.8344725079663808</v>
+        <v>0.007965417965667059</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.544263666666666</v>
+        <v>0.01674933333333333</v>
       </c>
       <c r="N12">
-        <v>7.632790999999999</v>
+        <v>0.050248</v>
       </c>
       <c r="O12">
-        <v>0.9712758890987108</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="P12">
-        <v>0.9712758890987108</v>
+        <v>0.002349678205191513</v>
       </c>
       <c r="Q12">
-        <v>5.625576444708554</v>
+        <v>0.0001356863493333334</v>
       </c>
       <c r="R12">
-        <v>50.630188002377</v>
+        <v>0.001221177144</v>
       </c>
       <c r="S12">
-        <v>0.8105030271034775</v>
+        <v>1.871616898916881E-05</v>
       </c>
       <c r="T12">
-        <v>0.8105030271034775</v>
+        <v>1.871616898916881E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,303 +1213,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.008101000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.024303</v>
+      </c>
+      <c r="I13">
+        <v>0.007965417965667061</v>
+      </c>
+      <c r="J13">
+        <v>0.007965417965667059</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.211082333333333</v>
-      </c>
-      <c r="H13">
-        <v>6.633247</v>
-      </c>
-      <c r="I13">
-        <v>0.8344725079663808</v>
-      </c>
-      <c r="J13">
-        <v>0.8344725079663808</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.016588</v>
+        <v>6.648105333333334</v>
       </c>
       <c r="N13">
-        <v>0.049764</v>
+        <v>19.944316</v>
       </c>
       <c r="O13">
-        <v>0.006332490087191991</v>
+        <v>0.9326286543275828</v>
       </c>
       <c r="P13">
-        <v>0.006332490087191991</v>
+        <v>0.9326286543275827</v>
       </c>
       <c r="Q13">
-        <v>0.03667743374533333</v>
+        <v>0.05385630130533334</v>
       </c>
       <c r="R13">
-        <v>0.330096903708</v>
+        <v>0.4847067117480001</v>
       </c>
       <c r="S13">
-        <v>0.005284288884731346</v>
+        <v>0.007428777038476823</v>
       </c>
       <c r="T13">
-        <v>0.005284288884731346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1796986666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.539096</v>
-      </c>
-      <c r="I14">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="J14">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.04190566666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.125717</v>
-      </c>
-      <c r="O14">
-        <v>0.01599754152181327</v>
-      </c>
-      <c r="P14">
-        <v>0.01599754152181327</v>
-      </c>
-      <c r="Q14">
-        <v>0.007530392425777778</v>
-      </c>
-      <c r="R14">
-        <v>0.06777353183199999</v>
-      </c>
-      <c r="S14">
-        <v>0.001084938746519191</v>
-      </c>
-      <c r="T14">
-        <v>0.001084938746519191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1796986666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.539096</v>
-      </c>
-      <c r="I15">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="J15">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.01674933333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.050248</v>
-      </c>
-      <c r="O15">
-        <v>0.006394079292284045</v>
-      </c>
-      <c r="P15">
-        <v>0.006394079292284045</v>
-      </c>
-      <c r="Q15">
-        <v>0.003009832867555556</v>
-      </c>
-      <c r="R15">
-        <v>0.027088495808</v>
-      </c>
-      <c r="S15">
-        <v>0.000433640654287776</v>
-      </c>
-      <c r="T15">
-        <v>0.000433640654287776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1796986666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.539096</v>
-      </c>
-      <c r="I16">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="J16">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.544263666666666</v>
-      </c>
-      <c r="N16">
-        <v>7.632790999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.9712758890987108</v>
-      </c>
-      <c r="P16">
-        <v>0.9712758890987108</v>
-      </c>
-      <c r="Q16">
-        <v>0.4572007885484444</v>
-      </c>
-      <c r="R16">
-        <v>4.114807096936</v>
-      </c>
-      <c r="S16">
-        <v>0.0658710492613009</v>
-      </c>
-      <c r="T16">
-        <v>0.0658710492613009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1796986666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.539096</v>
-      </c>
-      <c r="I17">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="J17">
-        <v>0.06781909239240512</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.016588</v>
-      </c>
-      <c r="N17">
-        <v>0.049764</v>
-      </c>
-      <c r="O17">
-        <v>0.006332490087191991</v>
-      </c>
-      <c r="P17">
-        <v>0.006332490087191991</v>
-      </c>
-      <c r="Q17">
-        <v>0.002980841482666666</v>
-      </c>
-      <c r="R17">
-        <v>0.026827573344</v>
-      </c>
-      <c r="S17">
-        <v>0.0004294637302972632</v>
-      </c>
-      <c r="T17">
-        <v>0.0004294637302972632</v>
+        <v>0.007428777038476821</v>
       </c>
     </row>
   </sheetData>
